--- a/tut05/output/0501CS01.xlsx
+++ b/tut05/output/0501CS01.xlsx
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.938775510204081</v>
+        <v>9.94</v>
       </c>
       <c r="C6" t="n">
-        <v>9.795454545454545</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D6" t="n">
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>9.808510638297872</v>
+        <v>9.81</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.938775510204081</v>
+        <v>9.94</v>
       </c>
       <c r="C8" t="n">
-        <v>9.870967741935484</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>9.911764705882353</v>
+        <v>9.91</v>
       </c>
       <c r="E8" t="n">
-        <v>9.885245901639344</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>9.906666666666666</v>
+        <v>9.91</v>
       </c>
       <c r="G8" t="n">
-        <v>9.920754716981133</v>
+        <v>9.92</v>
       </c>
       <c r="H8" t="n">
-        <v>9.931372549019608</v>
+        <v>9.93</v>
       </c>
       <c r="I8" t="n">
-        <v>9.939306358381502</v>
+        <v>9.94</v>
       </c>
     </row>
   </sheetData>
